--- a/project3excel.xlsx
+++ b/project3excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE16BE8-7F34-4500-876B-F19E8BD0C653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3048D3-B3A5-4075-9244-A5062AEEB3B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{301437FC-C19F-44D7-92B9-C076A08A7438}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Korea, Republic Of</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>Burma (Myanmar)</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>Federated States Of Micronesia</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>Congo, Republic Of The Congo</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -705,9 +693,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Democratic Republic Of The Congo</t>
-  </si>
-  <si>
     <t>ANNUAL2010</t>
   </si>
   <si>
@@ -739,13 +724,28 @@
   </si>
   <si>
     <t>ANNUAL2020</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +766,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -803,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,55 +1139,55 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1225,7 @@
         <v>9516237838</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>2752596665</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1293,9 +1301,9 @@
         <v>1422500808</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="B5" s="3">
         <v>936504240</v>
@@ -1331,9 +1339,9 @@
         <v>1416452119</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>1367057370</v>
@@ -1369,9 +1377,9 @@
         <v>1412673592</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>2667504709</v>
@@ -1407,9 +1415,9 @@
         <v>1383280554</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>669320801</v>
@@ -1445,9 +1453,9 @@
         <v>828993899</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>325335455</v>
@@ -1483,9 +1491,9 @@
         <v>479605761</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>233241761</v>
@@ -1521,9 +1529,9 @@
         <v>435505812</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>362604314</v>
@@ -1559,9 +1567,9 @@
         <v>425532943</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>322727359</v>
@@ -1597,9 +1605,9 @@
         <v>387885407</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>20693623</v>
@@ -1635,9 +1643,9 @@
         <v>372164971</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>339073926</v>
@@ -1673,9 +1681,9 @@
         <v>371185250</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>93011388</v>
@@ -1711,9 +1719,9 @@
         <v>329766663</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>253271359</v>
@@ -1749,9 +1757,9 @@
         <v>306384941</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>225809957</v>
@@ -1787,9 +1795,9 @@
         <v>238255608</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>125981478</v>
@@ -1825,9 +1833,9 @@
         <v>223783741</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>310258218</v>
@@ -1863,9 +1871,9 @@
         <v>210207616</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>124846846</v>
@@ -1901,9 +1909,9 @@
         <v>204964290</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>123910876</v>
@@ -1939,9 +1947,9 @@
         <v>197704419</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>177248029</v>
@@ -1977,9 +1985,9 @@
         <v>153911796</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>299631345</v>
@@ -2015,9 +2023,9 @@
         <v>151566512</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>48538750</v>
@@ -2053,9 +2061,9 @@
         <v>121092071</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>115961785</v>
@@ -2091,9 +2099,9 @@
         <v>114818214</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>113249423</v>
@@ -2129,9 +2137,9 @@
         <v>110903061</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>84124558</v>
@@ -2167,9 +2175,9 @@
         <v>100829327</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>51159896</v>
@@ -2205,9 +2213,9 @@
         <v>82542284</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>53439881</v>
@@ -2243,9 +2251,9 @@
         <v>73114894</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>40144335</v>
@@ -2281,9 +2289,9 @@
         <v>70978462</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>56907508</v>
@@ -2319,9 +2327,9 @@
         <v>70334149</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>12095302</v>
@@ -2357,9 +2365,9 @@
         <v>66625737</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>71628803</v>
@@ -2395,9 +2403,9 @@
         <v>49181846</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>36350176</v>
@@ -2433,9 +2441,9 @@
         <v>44063066</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
         <v>20947849</v>
@@ -2471,9 +2479,9 @@
         <v>40477978</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>27532623</v>
@@ -2509,9 +2517,9 @@
         <v>39625584</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>11675030</v>
@@ -2547,9 +2555,9 @@
         <v>38921642</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>50241290</v>
@@ -2585,9 +2593,9 @@
         <v>36140695</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>32974813</v>
@@ -2623,9 +2631,9 @@
         <v>33764376</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>505339384</v>
@@ -2661,9 +2669,9 @@
         <v>32194523</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
         <v>10147431</v>
@@ -2699,9 +2707,9 @@
         <v>31197280</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
         <v>36361420</v>
@@ -2737,9 +2745,9 @@
         <v>30940206</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
         <v>93680880</v>
@@ -2775,9 +2783,9 @@
         <v>27840514</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>23592828</v>
@@ -2813,9 +2821,9 @@
         <v>26887514</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>48138188</v>
@@ -2851,9 +2859,9 @@
         <v>26845004</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>28090659</v>
@@ -2889,9 +2897,9 @@
         <v>26402065</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
         <v>61455152</v>
@@ -2927,9 +2935,9 @@
         <v>21410210</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>25639460</v>
@@ -2965,9 +2973,9 @@
         <v>17683166</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="B49" s="3">
         <v>38478</v>
@@ -3003,9 +3011,9 @@
         <v>17520023</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3">
         <v>13829455</v>
@@ -3041,9 +3049,9 @@
         <v>17361720</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="3">
         <v>31487209</v>
@@ -3079,9 +3087,9 @@
         <v>16708575</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3">
         <v>10285013</v>
@@ -3117,9 +3125,9 @@
         <v>16243855</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3">
         <v>8807879</v>
@@ -3155,9 +3163,9 @@
         <v>15884978</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3">
         <v>23928780</v>
@@ -3193,9 +3201,9 @@
         <v>15206414</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="3">
         <v>1712174</v>
@@ -3231,9 +3239,9 @@
         <v>12969761</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>53412383</v>
@@ -3269,9 +3277,9 @@
         <v>12373175</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3">
         <v>6233035</v>
@@ -3307,9 +3315,9 @@
         <v>11654292</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3">
         <v>2414728</v>
@@ -3345,9 +3353,9 @@
         <v>11297408</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3">
         <v>8118418</v>
@@ -3383,9 +3391,9 @@
         <v>9817578</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3">
         <v>769509</v>
@@ -3421,9 +3429,9 @@
         <v>9483094</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3">
         <v>4677305</v>
@@ -3459,9 +3467,9 @@
         <v>7442063</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3">
         <v>7331014</v>
@@ -3497,9 +3505,9 @@
         <v>7153365</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3">
         <v>5741674</v>
@@ -3535,9 +3543,9 @@
         <v>7032331</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3">
         <v>7293856</v>
@@ -3573,9 +3581,9 @@
         <v>6785809</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="3">
         <v>3697127</v>
@@ -3611,9 +3619,9 @@
         <v>5960225</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3">
         <v>6565820</v>
@@ -3649,9 +3657,9 @@
         <v>5825708</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3">
         <v>6204745</v>
@@ -3687,9 +3695,9 @@
         <v>5232938</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3">
         <v>5930275</v>
@@ -3725,9 +3733,9 @@
         <v>5170775</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3">
         <v>51838437</v>
@@ -3763,9 +3771,9 @@
         <v>5113344</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3">
         <v>10351402</v>
@@ -3801,9 +3809,9 @@
         <v>5085962</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3">
         <v>3512739</v>
@@ -3839,9 +3847,9 @@
         <v>4757864</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" s="3">
         <v>1762350</v>
@@ -3877,9 +3885,9 @@
         <v>4386869</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3">
         <v>55167</v>
@@ -3915,9 +3923,9 @@
         <v>4265944</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>581317</v>
@@ -3953,9 +3961,9 @@
         <v>4214815</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>1504672</v>
@@ -3991,9 +3999,9 @@
         <v>4199998</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3">
         <v>586190</v>
@@ -4029,9 +4037,9 @@
         <v>3832789</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3">
         <v>2199213</v>
@@ -4067,9 +4075,9 @@
         <v>3396064</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="3">
         <v>1540536</v>
@@ -4105,9 +4113,9 @@
         <v>3203970</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3">
         <v>1539344</v>
@@ -4143,9 +4151,9 @@
         <v>3159928</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3">
         <v>2992220</v>
@@ -4181,9 +4189,9 @@
         <v>2913145</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="3">
         <v>4329239</v>
@@ -4219,9 +4227,9 @@
         <v>2569470</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="3">
         <v>2399128</v>
@@ -4257,9 +4265,9 @@
         <v>2534629</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="3">
         <v>2184047</v>
@@ -4295,9 +4303,9 @@
         <v>2407857</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3">
         <v>402831</v>
@@ -4333,9 +4341,9 @@
         <v>2250546</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B85" s="3">
         <v>2635863</v>
@@ -4371,9 +4379,9 @@
         <v>2064783</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B86" s="3">
         <v>583371</v>
@@ -4409,9 +4417,9 @@
         <v>1978547</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B87" s="3">
         <v>909169</v>
@@ -4447,9 +4455,9 @@
         <v>1854663</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B88" s="3">
         <v>727348</v>
@@ -4485,9 +4493,9 @@
         <v>1842979</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B89" s="3">
         <v>681353</v>
@@ -4523,9 +4531,9 @@
         <v>1818804</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <v>106053</v>
@@ -4561,9 +4569,9 @@
         <v>1715595</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3">
         <v>763126</v>
@@ -4599,9 +4607,9 @@
         <v>1712951</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3">
         <v>408915</v>
@@ -4637,9 +4645,9 @@
         <v>1511980</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3">
         <v>1062675</v>
@@ -4675,9 +4683,9 @@
         <v>1489233</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3">
         <v>202360</v>
@@ -4713,9 +4721,9 @@
         <v>1466584</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" s="3">
         <v>172221</v>
@@ -4751,9 +4759,9 @@
         <v>1141985</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3">
         <v>125390</v>
@@ -4789,9 +4797,9 @@
         <v>1130807</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B97" s="3">
         <v>2889197</v>
@@ -4827,9 +4835,9 @@
         <v>1095485</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" s="3">
         <v>4394173</v>
@@ -4865,9 +4873,9 @@
         <v>1086125</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B99" s="3">
         <v>1101749</v>
@@ -4903,9 +4911,9 @@
         <v>1015867</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100" s="3">
         <v>365764</v>
@@ -4941,9 +4949,9 @@
         <v>868623</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B101" s="3">
         <v>3210122</v>
@@ -4979,9 +4987,9 @@
         <v>825142</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -5017,9 +5025,9 @@
         <v>821672</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B103" s="3">
         <v>2264508</v>
@@ -5055,9 +5063,9 @@
         <v>814259</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104" s="3">
         <v>29018</v>
@@ -5093,9 +5101,9 @@
         <v>783205</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" s="3">
         <v>29569</v>
@@ -5131,9 +5139,9 @@
         <v>615649</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B106" s="3">
         <v>187542</v>
@@ -5169,9 +5177,9 @@
         <v>605553</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3">
         <v>588431</v>
@@ -5207,9 +5215,9 @@
         <v>569053</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3">
         <v>1622245</v>
@@ -5245,9 +5253,9 @@
         <v>551495</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" s="3">
         <v>9952</v>
@@ -5283,9 +5291,9 @@
         <v>523485</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B110" s="3">
         <v>387643</v>
@@ -5321,9 +5329,9 @@
         <v>518400</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3">
         <v>222720</v>
@@ -5359,9 +5367,9 @@
         <v>474390</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B112" s="3">
         <v>1243937</v>
@@ -5397,9 +5405,9 @@
         <v>463044</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B113" s="3">
         <v>365506</v>
@@ -5435,9 +5443,9 @@
         <v>442584</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B114" s="3">
         <v>5655</v>
@@ -5473,9 +5481,9 @@
         <v>432747</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B115" s="3">
         <v>15477</v>
@@ -5511,9 +5519,9 @@
         <v>428508</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" s="3">
         <v>3093351</v>
@@ -5549,9 +5557,9 @@
         <v>400176</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B117" s="3">
         <v>80613</v>
@@ -5587,9 +5595,9 @@
         <v>367331</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B118" s="3">
         <v>835258</v>
@@ -5625,9 +5633,9 @@
         <v>343034</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B119" s="3">
         <v>164273</v>
@@ -5663,9 +5671,9 @@
         <v>340919</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B120" s="3">
         <v>200650</v>
@@ -5701,9 +5709,9 @@
         <v>326131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B121" s="3">
         <v>3847929</v>
@@ -5739,9 +5747,9 @@
         <v>325161</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B122" s="3">
         <v>52084</v>
@@ -5777,9 +5785,9 @@
         <v>323198</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B123" s="3">
         <v>126307</v>
@@ -5815,9 +5823,9 @@
         <v>311314</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124" s="3">
         <v>58865</v>
@@ -5853,9 +5861,9 @@
         <v>287139</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>226</v>
+    <row r="125" spans="1:12">
+      <c r="A125" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="B125" s="3">
         <v>120610</v>
@@ -5891,9 +5899,9 @@
         <v>271616</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B126" s="3">
         <v>263945</v>
@@ -5929,9 +5937,9 @@
         <v>269559</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B127" s="3">
         <v>230760</v>
@@ -5967,9 +5975,9 @@
         <v>249273</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B128" s="3">
         <v>218437</v>
@@ -6005,9 +6013,9 @@
         <v>244112</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B129" s="3">
         <v>15412474</v>
@@ -6043,9 +6051,9 @@
         <v>235277</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B130" s="3">
         <v>271297</v>
@@ -6081,9 +6089,9 @@
         <v>226802</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B131" s="3">
         <v>81844</v>
@@ -6119,9 +6127,9 @@
         <v>200425</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="B132" s="3">
         <v>19750</v>
@@ -6157,9 +6165,9 @@
         <v>198599</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B133" s="3">
         <v>57261</v>
@@ -6195,9 +6203,9 @@
         <v>196844</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B134" s="3">
         <v>1139700</v>
@@ -6233,9 +6241,9 @@
         <v>195180</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B135" s="3">
         <v>1140864</v>
@@ -6271,9 +6279,9 @@
         <v>189416</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B136" s="3">
         <v>51956</v>
@@ -6309,9 +6317,9 @@
         <v>188274</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B137" s="3">
         <v>887004</v>
@@ -6347,9 +6355,9 @@
         <v>177524</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B138" s="3">
         <v>1539884</v>
@@ -6385,9 +6393,9 @@
         <v>176572</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -6423,9 +6431,9 @@
         <v>158847</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B140" s="3">
         <v>16359</v>
@@ -6461,9 +6469,9 @@
         <v>157896</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B141" s="3">
         <v>4451599</v>
@@ -6499,9 +6507,9 @@
         <v>140486</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B142" s="3">
         <v>18028</v>
@@ -6537,9 +6545,9 @@
         <v>134232</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B143" s="3">
         <v>123697</v>
@@ -6575,9 +6583,9 @@
         <v>127183</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B144" s="3">
         <v>526122</v>
@@ -6613,9 +6621,9 @@
         <v>117794</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B145" s="3">
         <v>364802</v>
@@ -6651,9 +6659,9 @@
         <v>115630</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B146" s="3">
         <v>156527</v>
@@ -6689,9 +6697,9 @@
         <v>106989</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B147" s="3">
         <v>70388</v>
@@ -6727,9 +6735,9 @@
         <v>102585</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B148" s="3">
         <v>10394</v>
@@ -6765,9 +6773,9 @@
         <v>101722</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B149" s="3">
         <v>129173</v>
@@ -6803,9 +6811,9 @@
         <v>99630</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B150" s="3">
         <v>4125</v>
@@ -6841,9 +6849,9 @@
         <v>95397</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B151" s="3">
         <v>159022</v>
@@ -6879,9 +6887,9 @@
         <v>91944</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B152" s="3">
         <v>313967</v>
@@ -6917,9 +6925,9 @@
         <v>86887</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B153" s="3">
         <v>2491127</v>
@@ -6955,9 +6963,9 @@
         <v>80498</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B154" s="3">
         <v>2729</v>
@@ -6993,9 +7001,9 @@
         <v>75779</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B155" s="3">
         <v>358152</v>
@@ -7031,9 +7039,9 @@
         <v>75094</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B156" s="3">
         <v>447341</v>
@@ -7069,9 +7077,9 @@
         <v>67782</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B157" s="3">
         <v>77222</v>
@@ -7107,9 +7115,9 @@
         <v>67073</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B158" s="3">
         <v>1133969</v>
@@ -7145,9 +7153,9 @@
         <v>66146</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B159" s="3">
         <v>1374385</v>
@@ -7183,9 +7191,9 @@
         <v>64077</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -7221,9 +7229,9 @@
         <v>62889</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B161" s="3">
         <v>51550</v>
@@ -7259,9 +7267,9 @@
         <v>56144</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B162" s="3">
         <v>684541</v>
@@ -7297,9 +7305,9 @@
         <v>53854</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B163" s="3">
         <v>920029</v>
@@ -7335,9 +7343,9 @@
         <v>52382</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B164" s="3">
         <v>22703</v>
@@ -7373,9 +7381,9 @@
         <v>51973</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B165" s="3">
         <v>676311</v>
@@ -7411,9 +7419,9 @@
         <v>46047</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B166" s="3">
         <v>9344</v>
@@ -7449,9 +7457,9 @@
         <v>42017</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B167" s="3">
         <v>308293</v>
@@ -7487,9 +7495,9 @@
         <v>36338</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B168" s="3">
         <v>144992</v>
@@ -7525,9 +7533,9 @@
         <v>35195</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -7563,9 +7571,9 @@
         <v>32264</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B170" s="3">
         <v>440015</v>
@@ -7601,9 +7609,9 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B171" s="3">
         <v>2513567</v>
@@ -7639,9 +7647,9 @@
         <v>28558</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B172" s="3">
         <v>307439</v>
@@ -7677,9 +7685,9 @@
         <v>27323</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -7715,9 +7723,9 @@
         <v>23837</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12">
       <c r="A174" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B174" s="3">
         <v>112185</v>
@@ -7753,9 +7761,9 @@
         <v>23708</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12">
       <c r="A175" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B175" s="3">
         <v>35585</v>
@@ -7791,9 +7799,9 @@
         <v>23519</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12">
       <c r="A176" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B176" s="3">
         <v>78216</v>
@@ -7829,9 +7837,9 @@
         <v>20331</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12">
       <c r="A177" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B177" s="3">
         <v>9479</v>
@@ -7867,9 +7875,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12">
       <c r="A178" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B178" s="3">
         <v>2149700</v>
@@ -7905,9 +7913,9 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12">
       <c r="A179" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B179" s="3">
         <v>16296</v>
@@ -7943,9 +7951,9 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12">
       <c r="A180" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B180" s="3">
         <v>57294</v>
@@ -7981,9 +7989,9 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12">
       <c r="A181" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B181" s="3">
         <v>73785</v>
@@ -8019,9 +8027,9 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12">
       <c r="A182" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B182" s="3">
         <v>18345</v>
@@ -8057,9 +8065,9 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B183" s="3">
         <v>214717</v>
@@ -8095,9 +8103,9 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B184" s="3">
         <v>20935</v>
@@ -8133,9 +8141,9 @@
         <v>9281</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12">
       <c r="A185" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -8171,9 +8179,9 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12">
       <c r="A186" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B186" s="3">
         <v>106382</v>
@@ -8209,9 +8217,9 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12">
       <c r="A187" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B187" s="3">
         <v>0</v>
@@ -8247,9 +8255,9 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12">
       <c r="A188" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -8285,9 +8293,9 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12">
       <c r="A189" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B189" s="3">
         <v>8610</v>
@@ -8323,9 +8331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B190" s="3">
         <v>33572</v>
@@ -8361,9 +8369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12">
       <c r="A191" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B191" s="3">
         <v>31523</v>
@@ -8399,9 +8407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12">
       <c r="A192" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -8437,9 +8445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12">
       <c r="A193" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -8475,9 +8483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -8513,9 +8521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B195" s="3">
         <v>17575</v>
@@ -8551,9 +8559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -8589,9 +8597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -8627,9 +8635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -8665,9 +8673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -8703,9 +8711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B200" s="3">
         <v>127795</v>
@@ -8741,9 +8749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12">
       <c r="A201" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -8779,9 +8787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12">
       <c r="A202" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B202" s="3">
         <v>6391</v>
@@ -8817,9 +8825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12">
       <c r="A203" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -8855,9 +8863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12">
       <c r="A204" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B204" s="3">
         <v>10332</v>
@@ -8893,9 +8901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12">
       <c r="A205" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -8931,9 +8939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12">
       <c r="A206" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B206" s="3">
         <v>35322</v>
@@ -8969,9 +8977,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12">
       <c r="A207" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -9007,9 +9015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12">
       <c r="A208" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B208" s="3">
         <v>2418210</v>
@@ -9045,9 +9053,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12">
       <c r="A209" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -9083,9 +9091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12">
       <c r="A210" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -9121,9 +9129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12">
       <c r="A211" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -9159,9 +9167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12">
       <c r="A212" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B212" s="3">
         <v>3075391</v>
@@ -9197,9 +9205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12">
       <c r="A213" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B213" s="3">
         <v>190450</v>
@@ -9235,9 +9243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12">
       <c r="A214" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -9273,9 +9281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12">
       <c r="A215" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -9311,9 +9319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12">
       <c r="A216" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B216" s="3">
         <v>219593</v>
@@ -9349,9 +9357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12">
       <c r="A217" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -9387,9 +9395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12">
       <c r="A218" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -9425,9 +9433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12">
       <c r="A219" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -9463,9 +9471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12">
       <c r="A220" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -9501,9 +9509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12">
       <c r="A221" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -9539,9 +9547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12">
       <c r="A222" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B222" s="3">
         <v>6644</v>
@@ -9577,9 +9585,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12">
       <c r="A223" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B223" s="3">
         <v>15336</v>
@@ -9615,9 +9623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12">
       <c r="A224" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B224" s="3">
         <v>365516</v>
@@ -9653,9 +9661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12">
       <c r="A225" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3">
         <v>2952</v>
@@ -9691,9 +9699,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12">
       <c r="A226" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -9729,9 +9737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B227" s="3">
         <v>13841</v>
@@ -9769,5 +9777,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>